--- a/Data/xsy/同济医院/同济医院交互明细.xlsx
+++ b/Data/xsy/同济医院/同济医院交互明细.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20210106_31938.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240425_52305.html</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2021-01-06</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20180605_23933.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20210106_31938.html</t>
         </is>
       </c>
     </row>
@@ -600,12 +600,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20240425_52305.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20180605_23933.html</t>
         </is>
       </c>
     </row>
@@ -622,12 +622,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2018-03-08</t>
+          <t>2021-01-06</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20230822_50825.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240425_52305.html</t>
         </is>
       </c>
     </row>
@@ -644,12 +644,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20140728_14417.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240704_52871.html</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20180308_23000.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20210106_31938.html</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2014-07-28</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20240425_52305.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20140728_14417.html</t>
         </is>
       </c>
     </row>
@@ -710,12 +710,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2018-06-05</t>
+          <t>2018-03-08</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20240814_53123.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20180308_23000.html</t>
         </is>
       </c>
     </row>
@@ -732,12 +732,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20210106_31938.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20180605_23933.html</t>
         </is>
       </c>
     </row>
@@ -754,12 +754,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20240704_52871.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20230822_50825.html</t>
         </is>
       </c>
     </row>
@@ -776,12 +776,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2014-07-28</t>
+          <t>2018-06-05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20180605_23933.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240814_53123.html</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2018-03-08</t>
+          <t>2021-01-06</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20130909_13427.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20140728_14417.html</t>
         </is>
       </c>
     </row>
@@ -820,12 +820,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2013-09-09</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20140728_14417.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20210106_31938.html</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2014-07-28</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2018-03-08</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20240425_52305.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20130909_13427.html</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2014-07-28</t>
+          <t>2013-09-09</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20210106_31938.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240425_52305.html</t>
         </is>
       </c>
     </row>
@@ -908,12 +908,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2018-08-01</t>
+          <t>2010-04-20</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20211122_47248.html</t>
+          <t>https://www.tjh.com.cn/contents/563/50446.html</t>
         </is>
       </c>
     </row>
@@ -930,12 +930,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2010-04-20</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20180801_24494.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20211122_47248.html</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20220927_49095.html</t>
+          <t>https://www.tjh.com.cn/contents/563/31219.html</t>
         </is>
       </c>
     </row>
@@ -974,12 +974,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2023-06-06</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/Content/95860420.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20180801_24494.html</t>
         </is>
       </c>
     </row>
@@ -996,12 +996,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2023-06-06</t>
+          <t>2018-08-01</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/contents/563/31219.html</t>
+          <t>https://www.tjh.com.cn/Content/95860420.html</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/contents/563/50446.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20220927_49095.html</t>
         </is>
       </c>
     </row>
@@ -1040,12 +1040,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2018-08-01</t>
+          <t>2010-04-20</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20211122_47248.html</t>
+          <t>https://www.tjh.com.cn/contents/563/50446.html</t>
         </is>
       </c>
     </row>
@@ -1062,12 +1062,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2010-04-20</t>
+          <t>2020-12-31</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20180801_24494.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20211122_47248.html</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/Content/95860420.html</t>
+          <t>https://www.tjh.com.cn/contents/563/31219.html</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/contents/563/31219.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20180801_24494.html</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1128,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2018-08-01</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/contents/563/50446.html</t>
+          <t>https://www.tjh.com.cn/Content/95860420.html</t>
         </is>
       </c>
     </row>
